--- a/biology/Botanique/Cleistes/Cleistes.xlsx
+++ b/biology/Botanique/Cleistes/Cleistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleistes est un genre d'orchidées terrestres comptant 64 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Cleistes vient du grec cleistes = fermé en référence à sa corolle
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidée terrestre à tige dressée et à fleurs lâches. 
-Labelle en entonnoir fermé[2].
+Labelle en entonnoir fermé.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique tropicale depuis la Floride jusqu'au Brésil.
 </t>
@@ -605,7 +623,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cleistes acuminata Schltr. (1926)
